--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223F8E4E-9695-4271-9687-F0A7259448DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC41F370-D18B-4EDA-8978-6886AF3C578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,27 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>dev_ID</t>
   </si>
   <si>
-    <t>stageTime</t>
-  </si>
-  <si>
     <t>spawnCount</t>
   </si>
   <si>
-    <t>unitType</t>
+    <t>spawnDelayTime</t>
+  </si>
+  <si>
+    <t>countDownTime</t>
+  </si>
+  <si>
+    <t>spawnType1</t>
+  </si>
+  <si>
+    <t>spawnType2</t>
+  </si>
+  <si>
+    <t>spawnType3</t>
   </si>
   <si>
     <t>Minion_Spider</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Minion_Ball</t>
-  </si>
-  <si>
-    <t>Minion_Turret</t>
   </si>
 </sst>
 </file>
@@ -87,10 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -436,52 +448,82 @@
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -489,10 +531,19 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC41F370-D18B-4EDA-8978-6886AF3C578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD0A300-2FEF-49F9-84B7-9B0D92A2A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>dev_ID</t>
   </si>
@@ -54,13 +54,19 @@
     <t>spawnType3</t>
   </si>
   <si>
+    <t>Minion_Ball</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Minion_Spider</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Minion_Ball</t>
+    <t>Minion_Drone</t>
+  </si>
+  <si>
+    <t>Boss_SkyFire</t>
   </si>
 </sst>
 </file>
@@ -96,13 +102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -485,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>30</v>
@@ -505,10 +514,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>30</v>
@@ -528,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -537,15 +546,186 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>180</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1"/>
+    <row r="13" spans="1:7" s="3" customFormat="1"/>
+    <row r="14" spans="1:7" s="3" customFormat="1"/>
+    <row r="15" spans="1:7" s="3" customFormat="1"/>
+    <row r="16" spans="1:7" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD0A300-2FEF-49F9-84B7-9B0D92A2A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE8C7F1-F6A0-48F1-AC34-3F0633F560B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -491,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -514,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -606,13 +606,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -629,13 +629,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -652,13 +652,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -675,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE8C7F1-F6A0-48F1-AC34-3F0633F560B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7B1F1B-5BC4-4734-9F2C-40F6D989ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -491,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -514,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -606,13 +606,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -629,13 +629,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -652,13 +652,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -675,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7B1F1B-5BC4-4734-9F2C-40F6D989ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D87BB9-984E-46B7-BFA3-BC6659EE7BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D87BB9-984E-46B7-BFA3-BC6659EE7BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62EF933A-9ABC-4EA1-AAF0-CAC65B8D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>dev_ID</t>
   </si>
@@ -54,12 +54,18 @@
     <t>spawnType3</t>
   </si>
   <si>
+    <t>enemyType</t>
+  </si>
+  <si>
     <t>Minion_Ball</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>Minion</t>
+  </si>
+  <si>
     <t>Minion_Spider</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
   </si>
   <si>
     <t>Boss_SkyFire</t>
+  </si>
+  <si>
+    <t>Boss</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -461,9 +470,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,215 +495,245 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -704,23 +744,26 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1"/>
+    <row r="13" spans="1:8" s="3" customFormat="1"/>
+    <row r="14" spans="1:8" s="3" customFormat="1"/>
+    <row r="15" spans="1:8" s="3" customFormat="1"/>
+    <row r="16" spans="1:8" s="3" customFormat="1"/>
     <row r="17" s="3" customFormat="1"/>
     <row r="18" s="3" customFormat="1"/>
     <row r="19" s="3" customFormat="1"/>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62EF933A-9ABC-4EA1-AAF0-CAC65B8D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09626B22-05D4-467B-A00F-F184EC43FD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>dev_ID</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -533,13 +533,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -559,13 +559,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -585,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
@@ -608,25 +608,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
@@ -634,13 +634,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -660,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -700,9 +700,6 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -715,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -726,9 +723,6 @@
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
@@ -759,16 +753,266 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1"/>
-    <row r="13" spans="1:8" s="3" customFormat="1"/>
-    <row r="14" spans="1:8" s="3" customFormat="1"/>
-    <row r="15" spans="1:8" s="3" customFormat="1"/>
-    <row r="16" spans="1:8" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>120</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09626B22-05D4-467B-A00F-F184EC43FD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC5FC02-C755-4F39-9C51-14D3DDC61C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
   <si>
     <t>dev_ID</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -530,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -582,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -700,6 +700,9 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,6 +725,9 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC5FC02-C755-4F39-9C51-14D3DDC61C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A944461C-0C04-4AA3-9D86-C22F63E6FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A944461C-0C04-4AA3-9D86-C22F63E6FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{600CC8A3-09DA-447C-908A-597948DA857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -530,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -582,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{600CC8A3-09DA-447C-908A-597948DA857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11960039-0A65-41B4-B6AB-4B74AD82C2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,13 +69,13 @@
     <t>Minion_Spider</t>
   </si>
   <si>
+    <t>Boss_SkyFire</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
     <t>Minion_Drone</t>
-  </si>
-  <si>
-    <t>Boss_SkyFire</t>
-  </si>
-  <si>
-    <t>Boss</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -530,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -582,16 +582,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -617,16 +617,16 @@
         <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
@@ -637,16 +637,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
@@ -663,16 +663,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -715,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -747,16 +747,16 @@
         <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -767,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
@@ -793,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>9</v>
@@ -845,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>9</v>
@@ -877,16 +877,16 @@
         <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
@@ -897,7 +897,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -923,7 +923,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>10</v>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -975,7 +975,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>10</v>
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
@@ -1007,16 +1007,16 @@
         <v>120</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11960039-0A65-41B4-B6AB-4B74AD82C2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD880FD-CE60-4DC3-923B-A99FCEECDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
   <si>
     <t>dev_ID</t>
   </si>
@@ -57,7 +57,7 @@
     <t>enemyType</t>
   </si>
   <si>
-    <t>Minion_Ball</t>
+    <t>Minion_Spider</t>
   </si>
   <si>
     <t>None</t>
@@ -66,16 +66,10 @@
     <t>Minion</t>
   </si>
   <si>
-    <t>Minion_Spider</t>
-  </si>
-  <si>
     <t>Boss_SkyFire</t>
   </si>
   <si>
     <t>Boss</t>
-  </si>
-  <si>
-    <t>Minion_Drone</t>
   </si>
 </sst>
 </file>
@@ -459,7 +453,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,13 +498,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -530,13 +524,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -556,16 +550,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -582,16 +576,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -614,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
@@ -634,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
@@ -660,19 +654,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
@@ -686,19 +680,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
@@ -712,19 +706,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
@@ -744,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -764,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -790,19 +784,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>9</v>
@@ -816,19 +810,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>9</v>
@@ -842,19 +836,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>9</v>
@@ -874,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
@@ -894,22 +888,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -920,22 +914,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -946,22 +940,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -972,22 +966,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
@@ -1004,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD880FD-CE60-4DC3-923B-A99FCEECDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60756ADB-1949-4B74-8D34-97F66F779415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60756ADB-1949-4B74-8D34-97F66F779415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0674AAB3-4B99-4311-9C60-07822385327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0674AAB3-4B99-4311-9C60-07822385327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC198D7-686F-4932-98A1-432F55C401D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -576,13 +576,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC198D7-686F-4932-98A1-432F55C401D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D3A84E-336A-4CFE-AC61-33F6C7F7DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
   <si>
     <t>dev_ID</t>
   </si>
@@ -57,7 +57,10 @@
     <t>enemyType</t>
   </si>
   <si>
-    <t>Minion_Spider</t>
+    <t>Minion_Ball</t>
+  </si>
+  <si>
+    <t>Minion_Drone</t>
   </si>
   <si>
     <t>None</t>
@@ -453,7 +456,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -498,13 +501,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -513,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -524,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -539,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
@@ -550,13 +553,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -565,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
@@ -576,13 +579,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
@@ -611,16 +614,16 @@
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
@@ -628,13 +631,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -643,10 +646,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
@@ -654,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -669,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
@@ -680,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -695,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
@@ -706,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -721,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
@@ -741,16 +744,16 @@
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -773,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -784,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -799,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
@@ -810,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -825,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
@@ -836,13 +839,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -851,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -871,16 +874,16 @@
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
@@ -888,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -903,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1">
@@ -914,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -929,10 +932,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1">
@@ -940,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -955,10 +958,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1">
@@ -966,13 +969,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -981,10 +984,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
@@ -1001,16 +1004,16 @@
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D3A84E-336A-4CFE-AC61-33F6C7F7DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BBDC97-A96C-48BF-8AB8-59E185C91B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
   <si>
     <t>dev_ID</t>
   </si>
@@ -60,13 +60,16 @@
     <t>Minion_Ball</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
     <t>Minion_Drone</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Minion</t>
+    <t>Minion_Spider</t>
   </si>
   <si>
     <t>Boss_SkyFire</t>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -516,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -527,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -542,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
@@ -553,25 +556,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
@@ -579,25 +582,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
@@ -614,16 +617,16 @@
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
@@ -631,25 +634,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
@@ -657,25 +660,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
@@ -683,25 +686,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
@@ -709,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
@@ -721,13 +724,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
@@ -744,16 +747,16 @@
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -761,25 +764,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -787,25 +790,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
@@ -813,25 +816,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
@@ -839,25 +842,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="3">
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -874,16 +877,16 @@
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
@@ -891,13 +894,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -906,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1">
@@ -917,13 +920,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -932,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1">
@@ -943,13 +946,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -958,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1">
@@ -969,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -984,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
@@ -1004,16 +1007,276 @@
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>150</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>150</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>150</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>150</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>150</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>150</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>60</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BBDC97-A96C-48BF-8AB8-59E185C91B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE6E92C-D0DE-4641-94F8-79E3288571A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -530,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -582,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
@@ -634,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
@@ -686,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
@@ -712,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
@@ -764,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
@@ -790,10 +790,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -816,10 +816,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -842,10 +842,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>30</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3">
         <v>0.2</v>
@@ -920,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3">
         <v>0.2</v>
@@ -946,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3">
         <v>0.2</v>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3">
         <v>0.2</v>
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
         <v>10</v>
@@ -1050,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
@@ -1076,10 +1076,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
@@ -1102,10 +1102,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>10</v>
@@ -1154,10 +1154,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
@@ -1180,10 +1180,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
@@ -1206,10 +1206,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
@@ -1232,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE6E92C-D0DE-4641-94F8-79E3288571A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D770579-D1E5-4530-8407-CEE1CB5EA839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="15">
   <si>
     <t>dev_ID</t>
   </si>
@@ -82,13 +82,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -120,6 +126,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -510,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -536,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -562,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -588,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -640,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -666,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -692,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -718,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -770,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -796,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
@@ -822,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -848,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -900,7 +909,7 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -926,7 +935,7 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -952,7 +961,7 @@
         <v>0.2</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -978,7 +987,7 @@
         <v>0.2</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1030,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1056,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1082,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1108,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -1160,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1186,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -1212,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1238,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -1276,6 +1285,1826 @@
         <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>60</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>200</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>70</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>60</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>100</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>60</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>100</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>100</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>60</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>300</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>300</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="3" customFormat="1">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>300</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="3" customFormat="1">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>300</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="3" customFormat="1">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>60</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="3" customFormat="1">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>125</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="3" customFormat="1">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>125</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="3" customFormat="1">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>125</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>125</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="3" customFormat="1">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>60</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="3" customFormat="1">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>125</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="3" customFormat="1">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>125</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="3" customFormat="1">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>125</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>125</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>60</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>125</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="3" customFormat="1">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>125</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="3" customFormat="1">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>125</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="3" customFormat="1">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>125</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="3" customFormat="1">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>60</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="3" customFormat="1">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>500</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="3" customFormat="1">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>500</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="3" customFormat="1">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>500</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D84" s="3">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="3" customFormat="1">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>500</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="3" customFormat="1">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>60</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="3" customFormat="1">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>150</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="3">
+        <v>5</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="3" customFormat="1">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>150</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="3">
+        <v>5</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="3" customFormat="1">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>150</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="3">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="3" customFormat="1">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>150</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="3" customFormat="1">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>60</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="3" customFormat="1">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>150</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="3" customFormat="1">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>150</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="3" customFormat="1">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>150</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="3" customFormat="1">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>150</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="3" customFormat="1">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>60</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="3" customFormat="1">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>150</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="3">
+        <v>5</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="3" customFormat="1">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>150</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="3" customFormat="1">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>150</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="3" customFormat="1">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>150</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="3" customFormat="1">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>60</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D770579-D1E5-4530-8407-CEE1CB5EA839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA69FD08-6D50-4AA1-B724-295C06B3D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA69FD08-6D50-4AA1-B724-295C06B3D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{370A0309-430C-448A-A3D8-524ED9A59392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -539,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{370A0309-430C-448A-A3D8-524ED9A59392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B9706D-61C8-4FEC-BC24-13D3983736A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -513,13 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B9706D-61C8-4FEC-BC24-13D3983736A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3F4198-121E-4A4C-97AA-EF2DE5EED9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -513,13 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFAF900F-9561-4B26-B64C-0E2A2EDD7041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84D5D1A-9158-4593-94EE-D772806CCC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
   <si>
     <t>dev_ID</t>
   </si>
@@ -54,6 +54,9 @@
     <t>spawnType3</t>
   </si>
   <si>
+    <t>spawnType4</t>
+  </si>
+  <si>
     <t>enemyType</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>Minion_Spider</t>
+  </si>
+  <si>
+    <t>Minion_WarMachine</t>
   </si>
   <si>
     <t>Boss_SkyFire</t>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -137,6 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -471,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -484,13 +491,13 @@
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="11" width="20.375" customWidth="1"/>
+    <col min="7" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="12" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,40 +528,46 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -565,28 +578,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -597,28 +613,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -629,28 +648,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -664,153 +686,168 @@
         <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -824,153 +861,168 @@
         <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -984,153 +1036,168 @@
         <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.5</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J16" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1">
+      <c r="K16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>0.2</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>0.2</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>0.2</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
         <v>0.2</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1">
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1144,153 +1211,168 @@
         <v>120</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1">
+    <row r="22" spans="1:11" s="3" customFormat="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1">
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1">
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1">
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1">
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1304,153 +1386,168 @@
         <v>120</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1">
         <v>2.5</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1">
+    <row r="27" spans="1:11" s="3" customFormat="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1">
+    <row r="28" spans="1:11" s="3" customFormat="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1">
+    <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1">
+    <row r="30" spans="1:11" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1">
+    <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1464,25 +1561,28 @@
         <v>120</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1"/>
+    <row r="32" spans="1:11" s="3" customFormat="1"/>
     <row r="33" s="3" customFormat="1"/>
     <row r="34" s="3" customFormat="1"/>
     <row r="35" s="3" customFormat="1"/>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84D5D1A-9158-4593-94EE-D772806CCC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B3F0AC-BB40-4B6D-83B2-D1AC28379751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="18">
   <si>
     <t>dev_ID</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Minion_Spider</t>
-  </si>
-  <si>
-    <t>Minion_WarMachine</t>
   </si>
   <si>
     <t>Boss_SkyFire</t>
@@ -481,7 +478,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -537,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -572,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -607,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -642,16 +639,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -677,16 +674,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
@@ -698,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -712,19 +709,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
@@ -736,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -747,19 +744,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
@@ -771,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -782,16 +779,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -806,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -817,23 +814,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
@@ -841,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -861,22 +858,22 @@
         <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -887,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
@@ -911,10 +908,10 @@
         <v>13</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1">
@@ -922,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -946,10 +943,10 @@
         <v>13</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1">
@@ -957,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
@@ -981,10 +978,10 @@
         <v>13</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1">
@@ -992,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -1016,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1">
@@ -1027,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -1048,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="1">
         <v>1.5</v>
@@ -1062,19 +1059,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -1086,10 +1083,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1">
@@ -1097,19 +1094,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -1121,10 +1118,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1">
@@ -1132,19 +1129,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -1156,10 +1153,10 @@
         <v>13</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1">
@@ -1167,23 +1164,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,10 +1188,10 @@
         <v>13</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1">
@@ -1202,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1211,22 +1208,22 @@
         <v>120</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J21" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K21" s="1">
         <v>1.5</v>
@@ -1237,31 +1234,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1">
         <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
@@ -1272,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1">
         <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -1307,31 +1304,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1">
         <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -1342,31 +1339,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1">
         <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -1377,16 +1374,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D26" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -1398,10 +1395,10 @@
         <v>12</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="K26" s="1">
         <v>1.5</v>
@@ -1412,22 +1409,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>12</v>
@@ -1447,22 +1444,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>12</v>
@@ -1482,22 +1479,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
@@ -1517,22 +1514,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
@@ -1561,22 +1558,22 @@
         <v>120</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>

--- a/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/LevelDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B3F0AC-BB40-4B6D-83B2-D1AC28379751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C048C6-7F86-4A1D-B5DC-D2483CFA568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,12 +106,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -141,6 +147,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -478,7 +490,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A31" activeCellId="2" sqref="A21:XFD21 A11:XFD11 A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -844,38 +856,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="11" spans="1:11" s="6" customFormat="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>120</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1194,38 +1206,38 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1">
-      <c r="A21" s="3">
+    <row r="21" spans="1:11" s="6" customFormat="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>120</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>1.5</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="7">
         <v>1.5</v>
       </c>
     </row>
@@ -1544,38 +1556,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1">
-      <c r="A31" s="3">
+    <row r="31" spans="1:11" s="6" customFormat="1">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
         <v>0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>120</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7">
         <v>2</v>
       </c>
     </row>
